--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -438,6 +438,84 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10108.290000000001</v>
+      </c>
+      <c r="B4">
+        <v>10054</v>
+      </c>
+      <c r="C4">
+        <v>297.77999999999997</v>
+      </c>
+      <c r="D4">
+        <v>296.18</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-0.54</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42606.585682870369</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10162.870000000001</v>
+      </c>
+      <c r="B5">
+        <v>10108.290000000001</v>
+      </c>
+      <c r="C5">
+        <v>297.77999999999997</v>
+      </c>
+      <c r="D5">
+        <v>296.18</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-0.54</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42606.586851851855</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10217.75</v>
+      </c>
+      <c r="B6">
+        <v>10162.870000000001</v>
+      </c>
+      <c r="C6">
+        <v>297.77999999999997</v>
+      </c>
+      <c r="D6">
+        <v>296.18</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-0.54</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42606.587916666664</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +516,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9850.93</v>
+      </c>
+      <c r="B7">
+        <v>10217.75</v>
+      </c>
+      <c r="C7">
+        <v>296.89</v>
+      </c>
+      <c r="D7">
+        <v>286.23</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-3.59</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42607.884328703702</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9974.07</v>
+      </c>
+      <c r="B8">
+        <v>9850.93</v>
+      </c>
+      <c r="C8">
+        <v>286.39</v>
+      </c>
+      <c r="D8">
+        <v>282.82</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-1.25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42608.616400462961</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9895.27</v>
+      </c>
+      <c r="B9">
+        <v>9974.07</v>
+      </c>
+      <c r="C9">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="D9">
+        <v>285.14</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.79</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42609.487256944441</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9822.0499999999993</v>
+      </c>
+      <c r="B10">
+        <v>9895.27</v>
+      </c>
+      <c r="C10">
+        <v>286</v>
+      </c>
+      <c r="D10">
+        <v>283.87</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.74</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42612.673032407409</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,6 +620,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9816.16</v>
+      </c>
+      <c r="B11">
+        <v>9822.0499999999993</v>
+      </c>
+      <c r="C11">
+        <v>283.47000000000003</v>
+      </c>
+      <c r="D11">
+        <v>283.29000000000002</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-0.06</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42613.765590277777</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9764.1299999999992</v>
+      </c>
+      <c r="B12">
+        <v>9816.16</v>
+      </c>
+      <c r="C12">
+        <v>282.39</v>
+      </c>
+      <c r="D12">
+        <v>280.89</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-0.53</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42614.672997685186</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9792.4500000000007</v>
+      </c>
+      <c r="B13">
+        <v>9764.1299999999992</v>
+      </c>
+      <c r="C13">
+        <v>280.62</v>
+      </c>
+      <c r="D13">
+        <v>281.44</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42615.750196759262</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,6 +698,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9686.69</v>
+      </c>
+      <c r="B14">
+        <v>9792.4500000000007</v>
+      </c>
+      <c r="C14">
+        <v>281.06</v>
+      </c>
+      <c r="D14">
+        <v>284.08999999999997</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.08</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42620.766400462962</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,6 +724,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9755.4699999999993</v>
+      </c>
+      <c r="B15">
+        <v>9686.69</v>
+      </c>
+      <c r="C15">
+        <v>284.08999999999997</v>
+      </c>
+      <c r="D15">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.71</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42621.725983796299</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9798.39</v>
+      </c>
+      <c r="B16">
+        <v>9755.4699999999993</v>
+      </c>
+      <c r="C16">
+        <v>286.64</v>
+      </c>
+      <c r="D16">
+        <v>287.91000000000003</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.44</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42622.756423611114</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -776,6 +776,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9440.75</v>
+      </c>
+      <c r="B17">
+        <v>9798.39</v>
+      </c>
+      <c r="C17">
+        <v>277</v>
+      </c>
+      <c r="D17">
+        <v>287.11</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3.65</v>
+      </c>
+      <c r="G17" s="1">
+        <v>42626.545347222222</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
